--- a/tradept/Excel/Localization/english/J角色互动事件池_RoleInteractionEvents_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/J角色互动事件池_RoleInteractionEvents_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xargs01\Downloads\trasl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4517C71-89E0-498F-8552-F45B011285F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3934097-401B-40C1-A726-8FE5F878D908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -705,446 +705,736 @@
     <t>测试阵营事件5</t>
   </si>
   <si>
-    <t>[$eventrole:name:0$]释放了手下关押的一批年轻俘虏。</t>
-  </si>
-  <si>
     <t>测试阵营事件6</t>
   </si>
   <si>
-    <t>[$eventrole:name:0$]在行军路上大肆掠夺无辜的农民们。</t>
-  </si>
-  <si>
     <t>测试阵营事件7</t>
   </si>
   <si>
-    <t>[$eventrole:name:0$]爱护士兵，特地多发了两日的军饷。</t>
-  </si>
-  <si>
     <t>测试阵营事件8</t>
   </si>
   <si>
-    <t>[$eventrole:name:0$]军法处置了几个回家探亲的士兵，在军营引发了一阵恐慌。</t>
-  </si>
-  <si>
     <t>测试阵营事件9</t>
   </si>
   <si>
-    <t>因对敌人部落的软弱态度，[$eventrole:name:1$]在朝堂上愤怒的与[$eventrole:name:0$]针锋相对。</t>
-  </si>
-  <si>
     <t>测试阵营事件10</t>
   </si>
   <si>
-    <t>[$eventrole:name:0$]与[$eventrole:name:1$]在私人宴会上抱怨部落首领的不公，被有心人听见了。</t>
-  </si>
-  <si>
     <t>测试阵营事件11</t>
   </si>
   <si>
-    <t>[$eventrole:name:0$]在司法上偏袒富人，有传言说他经常接受别人的礼物。</t>
-  </si>
-  <si>
     <t>测试阵营事件12</t>
   </si>
   <si>
-    <t>[$eventrole:name:1$]被[$eventrole:name:0$]指控与敌对部落的人私下会面，人们开始质疑[$eventrole:name:0$]的动机。</t>
-  </si>
-  <si>
     <t>测试阵营事件13</t>
   </si>
   <si>
-    <t>[$eventrole:name:0$]领兵不利，麾下士兵经常擅自离队或者战前退缩，有人开始怀疑其指挥能力。</t>
-  </si>
-  <si>
     <t>测试阵营事件14</t>
   </si>
   <si>
-    <t>[$eventrole:name:0$]在领地内强行征兵，许多农民不得不让自己的孩子们逃到别出去。</t>
-  </si>
-  <si>
     <t>测试阵营事件15</t>
   </si>
   <si>
-    <t>[$eventrole:name:0$]善待俘虏，美名在敌人之处也得到了传播。</t>
-  </si>
-  <si>
     <t>测试阵营事件16</t>
   </si>
   <si>
-    <t>[$eventrole:name:0$]沉迷郊游狩猎，丝毫不关心领地民生。</t>
-  </si>
-  <si>
     <t>测试阵营事件17</t>
   </si>
   <si>
-    <t>[$eventrole:name:0$]巡视领地时，亲自下地与农民一起干活，受到人们的爱戴。</t>
-  </si>
-  <si>
     <t>测试阵营事件18</t>
   </si>
   <si>
-    <t>[$eventrole:name:0$]沉着处理了领地内的自然灾害，避免了一场浩劫。</t>
-  </si>
-  <si>
     <t>测试阵营事件19</t>
   </si>
   <si>
-    <t>[$eventrole:name:0$]为了稳定军心，将自己的计划向所有士兵托盘而出，但是却被间谍偷听，传到了敌对部落那里。</t>
-  </si>
-  <si>
     <t>测试阵营事件20</t>
   </si>
   <si>
-    <t>[$eventrole:name:0$]在敌人的领地行军时不忘赠与食物给当地农民，所以一切都很顺利。</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] amablemente dona ropa al orfanato local</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] se ve superado por la difícil situación de un mendigo y, regalando limosnas y comida, comenta: "Dar regalos es el mayor placer"</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] salvó a un perro herido a costa de algunas valiosas pociones de Rosa Blanca</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] vio a niños vendiendo flores en la acera. [$eventrole:name:0$] compró todos sus ramos</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] dona algunas limosnas a un mendigo discapacitado, pero los ve corriendo como un violín al día siguiente</t>
-  </si>
-  <si>
-    <t>Al enterarse del desastre que ha ocurrido en el pueblo, [$eventrole:name:0$] cabalga día y noche para brindar refuerzos</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] resuelve calmadamente una disputa entre algunos habitantes locales del pueblo</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] se queda completamente inmóvil cuando está rodeado de enemigos en el foso. Todo eventualmente se soluciona de maravilla</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] puede leer un libro en medio de una tormenta de arena sin inmutarse lo más mínimo</t>
-  </si>
-  <si>
-    <t>Cuando [$eventrole:name:0$] es puesto en aprietos, su respuesta contundente deja al jefe principal sin palabras</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] es rápido tanto de mente como de acción, arrancando a una joven que busca a su madre de entre un grupo de soldados a caballo</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] utiliza algunos trucos en la mesa de apuestas para obtener una gran ganancia</t>
-  </si>
-  <si>
-    <t>Las técnicas de trampa de [$eventrole:name:0$] fueron descubiertas durante la pelea, descalificándolos de la competencia</t>
-  </si>
-  <si>
-    <t>Mientras venden su comida, [$eventrole:name:0$] opina "no se trata del dinero, sino de los amigos que conocemos en el camino"</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] fue atrapado por un enemigo pero logró escapar</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] es interrogado por los guardias pero se hace el tonto - y pronto es dejado ir</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$], astutos como son, enfrentaron a dos acreedores entre sí y escaparon ilesos</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] toma bajo su protección a un joven huérfano de guerra, diciéndole que debe aferrarse firmemente a su futuro con ambas manos</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] se encuentra con una injusticia en el camino y frustra a dos presuntos bandidos que están acechando en emboscada</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] llegó hasta el sanador sin pestañear. "Corta un dedo, a ver si me importa"</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] se esfuerza día tras día; llueva, haga viento o brille el sol, y sin duda ha visto mejoras</t>
-  </si>
-  <si>
-    <t>Cuando el némesis de un amigo decidió acosar a [$eventrole:name:0$], ellos mantienen sus labios cerrados. Nunca traicionarían a su amigo</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] patea a un aldeano discapacitado para apartarlo de su camino, ganándose el miedo de los habitantes del pueblo</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] devora un plato entero de fideos de cordero en el mercado, y luego se va sin pagar</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] cobra su propio peaje en un callejón</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] arrebata dulces a un bebé a plena luz del día mientras se ríe a carcajadas, para la amarga lamentación de todos los demás involucrados</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] observa cómo un ladrón de guante blanco se acerca sigilosamente a una habitación pero no los detiene. En cambio, ellos mismos le roban al ladrón</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] comienza accidentalmente una de esas peleas incómodas en la taberna donde nadie más realmente quiere pelear</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] se volvió demasiado apasionado durante una pelea en la taberna y terminó pagando de su propio bolsillo los daños en el rostro de alguien</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] enciende a un comerciante sospechoso en el bazar. [$eventrole:name:0$], atrayendo a una multitud, finalmente es expulsado</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$], defendiendo la castidad de una chica de la tribu, cabalga furioso/a para enseñarle a alguien una lección</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] es provocado por ladrones y cae en la trampa, pero es sorprendido/a y pierde su bolso en el altercado</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] no puede soportar que otros hablen de ellos. Casi siempre pierden la paciencia</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] se encuentra con un noble golpeando a un plebeyo pero honorablemente rechaza su soborno. En cambio, acusan en voz alta al noble de su crimen</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] rinde culto a un antiguo mentor que ya no está en este mundo</t>
-  </si>
-  <si>
-    <t>Al enterarse de que un viejo amigo está pasando por momentos difíciles, [$eventrole:name:0$] mueve montañas para ofrecer una mano amiga</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] pierde algunos bienes en el camino, pero gana el respeto del gremio al hacerse cargo de las pérdidas</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] rechaza una invitación para un té real de alta categoría para cumplir una vieja promesa a un querido amigo</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] no responde a provocaciones difamatorias en la taberna. Los espectadores no pueden entender por qué</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] se da la vuelta y corre al ver a los bandidos en el horizonte, atreviéndose a sugerir "¡Se llama kiting, por Dios! No lo entenderías"</t>
-  </si>
-  <si>
-    <t>Un ladrón entra en la residencia de [$eventrole:name:0$]. [$eventrole:name:0$], al escuchar un ruido, se precipita a través de la gatera en la puerta trasera</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$], con un rasguño en la espinilla, buscó hipnoterapia de un Acólito de la Rosa Blanca para aliviar el dolor</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] deambula por la calle equivocada y es perseguido por un perro feroz durante un par de cuadras, para diversión de todo el pueblo</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] se encuentra con la guardia de la ciudad acosando a algunos comerciantes, pero no hace nada</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] se está volviendo ruidoso en la taberna. Justo cuando las cosas comienzan a ponerse tensas con [$eventrole:name:2$], [$eventrole:name:1$] interviene para calmar la situación</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$], nostálgico, está llorando a mares en la taberna. [$eventrole:name:1$] simplemente piensa que es un mocoso llorón</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:1$] insta a [$eventrole:name:2$] a hacer una donación conjunta al orfanato local mientras [$eventrole:name:0$] los observa, juzgándolos en secreto</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] y [$eventrole:name:1$] capturan a un enemigo vivo. [$eventrole:name:1$] está ansioso por torturarlo para obtener información, pero [$eventrole:name:0$] no tiene el estómago para hacerlo</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] y [$eventrole:name:2$] chantajean a un comerciante juntos. Observando desde lejos, [$eventrole:name:1$] considera que ambos son altamente poco éticos</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] irrumpe en la prisión para liberar a un prisionero, prendiendo fuego a las celdas. [$eventrole:name:1$] y [$eventrole:name:2$] presencian todo y deciden delatar a [$eventrole:name:0$]</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$], [$eventrole:name:1$] y [$eventrole:name:2$] están muy metidos en la bebida cuando [$eventrole:name:1$] y [$eventrole:name:2$] se pelean con algunos clientes. [$eventrole:name:0$] les insta a no pelear. [$eventrole:name:1$] y [$eventrole:name:2$] encuentran a [$eventrole:name:0$] completamente molesto, y los tres se separan, cada uno enfadado</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$], [$eventrole:name:1$] y [$eventrole:name:2$] son asaltados por bandidos; [$eventrole:name:0$] y [$eventrole:name:1$] quieren pelear, pero [$eventrole:name:2$] en cambio inventa una historia sobre un comerciante que los sigue. Creyendo a [$eventrole:name:2$], los tres logran salir del aprieto. [$eventrole:name:0$] y [$eventrole:name:1$] expresan su admiración por [$eventrole:name:2$]</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] y [$eventrole:name:1$] escuchan por casualidad el plan de un robo de joyas. [$eventrole:name:0$] quiere actuar ahora, pero [$eventrole:name:1$] prefiere ir despacio. [$eventrole:name:0$] piensa que [$eventrole:name:1$] está siendo demasiado cauteloso</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] y [$eventrole:name:1$] escuchan a alguien gritando pidiendo ayuda. [$eventrole:name:0$] quiere correr de inmediato, pero [$eventrole:name:1$] quiere analizar la situación primero. [$eventrole:name:0$] piensa que [$eventrole:name:1$] es un cobarde</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] y [$eventrole:name:1$] se emplean con un grupo de bandidos. [$eventrole:name:0$] entra directamente en su guarida sin previo aviso, pero [$eventrole:name:1$] encuentra esto simplemente demasiado imprudente</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] y [$eventrole:name:1$] se encuentran con [$eventrole:name:2$] comprando tesoros de [$eventrole:name:3$] en la calle, y deciden comprar algunos para ellos mismos, ¡solo para descubrir más tarde que son falsos!</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:1$] y [$eventrole:name:2$] se encuentran con [$eventrole:name:0$] tratando de persuadir a un pobre aldeano para que compre su basura. Ellos piensan que [$eventrole:name:0$] realmente ha caído en desgracia</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] fue estafado de algo de dinero, pero [$eventrole:name:1$] terminó ganándolo todo de vuelta para ellos. [$eventrole:name:0$] le debe una deuda de gratitud a [$eventrole:name:1$]</t>
-  </si>
-  <si>
-    <t>Justo cuando [$eventrole:name:0$] se siente completamente agotado después de un día en la carretera, [$eventrole:name:1$] le pellizca el costo del alojamiento de [$eventrole:name:0$] para la noche</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] y [$eventrole:name:1$] se encuentran con [$eventrole:name:2$] en su camino de regreso después de abandonar algo a mitad de camino. [$eventrole:name:0$] y [$eventrole:name:1$] no pueden ocultar su decepción en [$eventrole:name:2$]</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$], [$eventrole:name:1$] y [$eventrole:name:2$] se encuentran con una banda de bandidos mientras están juntos en el camino. [$eventrole:name:2$] quiere retroceder. [$eventrole:name:0$] y [$eventrole:name:1$] consideran a [$eventrole:name:2$] como un verdadero cobarde</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:1$] se encuentra con [$eventrole:name:0$] discutiendo en el mercado. [$eventrole:name:0$] tiene razón pero se calla ante los gritos excesivamente agresivos. [$eventrole:name:1$] lo toma como una victoria</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] ahoga sus penas de nostalgia en una copa de vino, pero [$eventrole:name:1$] considera esto como la cúspide de la depravación moral</t>
-  </si>
-  <si>
-    <t>Cuando los bandidos se imponen sobre los aldeanos, [$eventrole:name:1$] se queda sin hacer nada, ni siquiera silbar. [$eventrole:name:0$] instantáneamente baja su opinión sobre [$eventrole:name:1$]</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] no puede soportar ver a otros en necesidad, y acepta ayudar a un amigo. Sin embargo, al hacerlo, arruinan sus propios planes y terminan lamentando su lado más amable</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] iba a pasar a visitar a unos amigos pero desistió porque el viaje era demasiado duro. Ahora se siente bastante culpable</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] ayuda a algunos aldeanos a recuperar algo de Utar de un estafador. Están muy agradecidos de verdad</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] comienza una discusión con alguien en una taberna y termina abrumado por el arrepentimiento</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] se encontró con algunas personas en la calle haciendo mucho ruido, pero luego descubrió que todo era un gran malentendido. Ahora [$eventrole:name:0$] se siente avergonzado/a</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] recibió demasiado cambio al comprar grano a un campesino. Regresan al mercado para devolverle el dinero extra</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] se entera de un brutal asesinato a manos de un déspota local y decide echar una mano para saldar cuentas de una vez por todas</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] coloca con calma una fractura a un soldado herido, ganándose el respeto de los lugareños</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] intenta irse sin pagar pero es descubierto, ahora está destrozando todo el lugar en un ataque de ira</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] confiesa haber participado en una antigua fuga de prisión y espera su arresto con una sonrisa de satisfacción en su rostro</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] encanta una pequeña fortuna a un empresario adinerado, antes de empacar todo y dejar atrás su pasado</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] quería unirse a una pandilla para conseguir algo de Utar, pero fue convencido de lo contrario por sus propias convicciones morales</t>
-  </si>
-  <si>
-    <t>La expresión de [$eventrole:name:0$] no cambia al ver una recompensa por su cabeza. ¡Qué confianza!</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] es robado por un carterista pero alcanza al ladrón. En lugar de tomar represalias, entregan al ladrón a la guardia de la ciudad en su lugar</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] aceptó una misión con una alta comisión. [$eventrole:name:0$], dudando de sus habilidades, confiesa que no puede cumplir con su deber. No tienen más opción que abandonar su misión</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] es confundido con un bribón deshonesto y, a pesar de las protestas, termina pagando de su propio bolsillo para evitar cualquier problema potencial</t>
-  </si>
-  <si>
-    <t>Cuando [$eventrole:name:0$] se encuentra con un estafador en la taberna que los busca, se mantienen tranquilos y terminan engañando al tramposo de vuelta</t>
-  </si>
-  <si>
-    <t>Fuera en la ciudad para divertirse, [$eventrole:name:0$] se encuentra con una pelea, pero rápidamente admite sus acciones cuando es detenido por la guardia de la ciudad</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] no logró estafar a un comerciante para obtener un cristal y destrozó su puesto en el proceso</t>
-  </si>
-  <si>
-    <t>Un extraño mono roba la mochila de [$eventrole:name:0$], así que lo persiguen hasta su guarida</t>
-  </si>
-  <si>
-    <t>Inicialmente enfadado por ser derribado en el mercado local, [$eventrole:name:0$] cambió de opinión cuando vio que era el carismático líder tribal</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] presencia una mala acción en el bazar pero no le dice nada a los guardias. Sintiéndose culpable después, informa al jefe sobre la identidad del culpable</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] es detenido por una banda de bandidos que los invita a unirse y saquear al resto de los comerciantes en la caravana. No solo [$eventrole:name:0$] se niega, sino que sacan sus armas y los enfrentan</t>
-  </si>
-  <si>
-    <t>Después de presenciar a tantos pasar hambre en las calles, [$eventrole:name:0$] reparte precioso grano traído desde otro lugar a la ciudad</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] sigue robando a un noble local, finalmente escapando con su tesoro más preciado</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] es atrapado por bandidos y arrojado a la mazmorra. Tranquilamente formulando un plan de escape, [$eventrole:name:0$] finalmente excava un túnel hacia la seguridad y la libertad</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] se ve envuelto en una disputa por el precio del pescado, regateando hasta el final amargo. Cuando finalmente llega la compensación, es incluso menor al costo de compra</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] se encuentra con un atraco en la calle pero decide no involucrarse -- y luego se arrepiente</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] es detenido para ser interrogado por la guardia del pueblo después de escapar con un carro. Obtienen su libertad al delatar a sus cómplices</t>
-  </si>
-  <si>
-    <t>Mientras presumía sobre su ciudad natal con desconocidos en una taberna, [$eventrole:name:0$] comparte accidentalmente demasiados detalles sobre su dirección. Al regresar a casa, descubre que muchos de sus objetos han sido movidos o desaparecidos</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] es recibido con quejas por parte de los agricultores locales mientras recauda los impuestos admitidamente altos</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] se enfurece, azotando a uno de los cautivos de [$eventrole:name:1$] que tiene información importante. [$eventrole:name:1$] no está contento/a</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] organiza un banquete lujoso, pero enfada a [$eventrole:name:1$] y [$eventrole:name:2$] al olvidarse de invitarlos</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] redacta algunos permisos comerciales para algunos comerciantes para fomentar el comercio en toda la región</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] libera un grupo de jóvenes cautivos que estaban prisioneros</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] decide saquear a algunos aldeanos locales mientras están en marcha</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] trata bien a sus soldados, dándoles a todos dos días de permiso pagado</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] provoca pánico en el campamento al castigar a algunas tropas bajo acusaciones de deserción. Simplemente fueron a casa a visitar a su familia</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:1$] se encuentra diametralmente opuesto a [$eventrole:name:0$] y su debilidad para manejar tribus enemigas</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] y [$eventrole:name:1$] se quejan del jefe tribal en un banquete privado, pero son escuchados por alguien con intenciones ocultas</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] favorece a los ricos en asuntos de los tribunales. Se rumorea que están abiertos a sobornos</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:1$] es acusado de reunirse en secreto con el enemigo por [$eventrole:name:0$]. La gente comienza a cuestionar los motivos de [$eventrole:name:0$]</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] tiene problemas para liderar a sus tropas, quienes a menudo se ausentan sin permiso o incluso desertan de su escuadrón. La gente comienza a dudar de sus habilidades de liderazgo</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] promulga el reclutamiento entre la tribu. Muchas familias instan a sus hijos a huir para escapar de las llamas de la guerra</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] trata amablemente a los cautivos. Su reputación de benevolencia se extiende por todo el ejército enemigo</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] ama la caza en la naturaleza, aparentemente sin preocuparse por el sustento de las personas</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] ayuda personalmente a los campesinos con sus tareas mientras está de patrulla, ganándose el amor del pueblo</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] maneja calmadamente un desastre natural para la tribu, evitando una catástrofe</t>
-  </si>
-  <si>
-    <t>Para ganarse la confianza de todas sus tropas, [$eventrole:name:0$] revela todos sus planes. Un espía escucha sus palabras y las transmite rápidamente a una tribu enemiga</t>
-  </si>
-  <si>
-    <t>[$eventrole:name:0$] recordó dar propina a los agricultores locales con algo de grano mientras marchaban por terreno enemigo. La marcha continúa de manera segura</t>
+    <t>[$eventrole:name:0$] gentilmente doa roupas ao orfanato local.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] é tocado pela situação de um mendigo e, dando esmolas e comida, comenta: "Dar presentes é o maior prazer."</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] salvou um cachorro ferido ao custo de algumas preciosas poções Rosa Branca.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] viu crianças vendendo flores na rua. [$eventrole:name:0$] comprou todos os seus buquês.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] doa esmolas a um mendigo incapacitado, mas os vê correndo como se estivessem em perfeita forma no dia seguinte.</t>
+  </si>
+  <si>
+    <t>Ao ouvir sobre um desastre que atingiu a cidade, [$eventrole:name:0$] cavalga dia e noite para fornecer reforços.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] resolve calmamente uma briga entre alguns moradores locais.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] fica completamente imóvel quando cercado por inimigos na arena. Tudo eventualmente se resolve bem.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] consegue ler um livro no meio de uma tempestade de areia sem se perturbar nem um pouco.</t>
+  </si>
+  <si>
+    <t>Quando [$eventrole:name:0$] é colocado à prova, sua resposta direta deixa o chefe perplexo.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] é rápido tanto de mente quanto de ação, retirando uma jovem que procurava por sua mãe de um grupo de soldados a cavalo.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] usa alguns truques na mesa de apostas para ganhar uma bela quantia.</t>
+  </si>
+  <si>
+    <t>As técnicas de trapaça de [$eventrole:name:0$] foram descobertas durante a briga, desqualificando-os da competição.</t>
+  </si>
+  <si>
+    <t>Enquanto vende sua comida, [$eventrole:name:0$] opina: "Não se trata do dinheiro - são os amigos que conhecemos pelo caminho."</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] foi pego por um inimigo, mas conseguiu escapar.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] é interrogado pelos guardas, mas age como um tolo - e logo é liberado.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$], astuto como é, coloca dois credores um contra o outro e sai ileso.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] acolhe um jovem órfão de guerra, dizendo a ele que deve agarrar seu futuro firmemente com ambas as mãos.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] encontra injustiça na estrada e impede dois bandidos que estavam emboscados.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] conseguiu voltar ileso ao curandeiro. "Corte um dedo, veja se me importo."</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] trabalha duro dia após dia, faça chuva, faça sol - e certamente viu melhorias.</t>
+  </si>
+  <si>
+    <t>Quando o inimigo de um amigo decidiu intimidar [$eventrole:name:0$], eles mantiveram os lábios cerrados. Jamais trairiam seu amigo.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] empurra um morador deficiente para longe, bloqueando levemente seu caminho, ganhando o medo dos habitantes da cidade.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] devora um prato inteiro de macarrão de carneiro no mercado - e depois sai sem pagar.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] cobra sua própria taxa em um beco.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] rouba doces de um bebê à luz do dia, gargalhando, para o lamento amargo de todos os outros envolvidos.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] observa um ladrão de gatos entrar em um quarto, mas não o impede. Em vez disso, eles roubam o ladrão.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] inicia acidentalmente uma daquelas brigas constrangedoras em uma taverna em que ninguém mais realmente quer brigar.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] ficou muito exaltado durante uma briga na taverna e acabou pagando pelo prejuízo no rosto de alguém.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] provocou um comerciante duvidoso no bazar. [$eventrole:name:0$], atraindo uma multidão, acabou sendo expulso.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$], defendendo a honra de uma garota da tribo, parte furioso para dar uma lição a alguém.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] é provocado por ladrões e cai na armadilha - mas é pego de surpresa, perdendo sua bolsa na confusão.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] não suporta que falem sobre eles. Eles quase sempre perdem a paciência.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] testemunha um nobre espancando um plebeu, mas recusa honrosamente o suborno. Em vez disso, eles acusam o nobre publicamente de seu crime.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] presta homenagem a um antigo mentor que já não está mais neste mundo.</t>
+  </si>
+  <si>
+    <t>Ao saber que um antigo amigo está passando por tempos difíceis, [$eventrole:name:0$] move montanhas para oferecer uma mão amiga.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] perde algumas mercadorias na estrada, mas ganha o respeito da guilda ao arcar com as perdas.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] recusa um convite para um chá real para cumprir uma antiga promessa a um querido amigo.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] não responde à provocação difamatória na taverna. Os espectadores não conseguem entender por quê.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] vira e corre ao ver bandidos no horizonte, ousando sugerir "Chama-se kiting, caramba! Vocês não entenderiam."</t>
+  </si>
+  <si>
+    <t>Um ladrão entra na residência de [$eventrole:name:0$]. [$eventrole:name:0$], ouvindo um barulho, passa pelo buraco do gato na porta dos fundos.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$], com um arranhão na canela, procurou a hipnoterapia de um Acólito da Rosa Branca para aliviar a dor.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] vagueia pela rua errada e é perseguido por um cachorro feroz por algumas quadras - para diversão da cidade.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] depara com a guarda da cidade intimidando alguns comerciantes - mas não faz nada.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] está ficando agitado na taverna. Justo quando as coisas começam a ficar tensas com [$eventrole:name:2$], [$eventrole:name:1$] aparece para desarmar a situação.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$], com saudades de casa, está chorando copiosamente na taverna. [$eventrole:name:1$] acha que eles são apenas uns mimados.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:1$] incentiva [$eventrole:name:2$] a fazer uma doação conjunta para o orfanato local, com [$eventrole:name:0$] observando secretamente e julgando-os.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] e [$eventrole:name:1$] capturam um inimigo vivo. [$eventrole:name:1$] está ansioso para torturá-lo em busca de informações, mas [$eventrole:name:0$] não tem estômago para isso.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] e [$eventrole:name:2$] chantageiam um comerciante juntos. Observando de longe, [$eventrole:name:1$] considera os dois altamente antiéticos.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] invade a prisão para resgatar um prisioneiro, incendiando as celas. [$eventrole:name:1$] e [$eventrole:name:2$] testemunham tudo e decidem delatar [$eventrole:name:0$].</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$], [$eventrole:name:1$] e [$eventrole:name:2$] estão profundamente embriagados quando [$eventrole:name:1$] e [$eventrole:name:2$] entram em conflito com alguns clientes. [$eventrole:name:0$] os instiga a não brigar. [$eventrole:name:1$] e [$eventrole:name:2$] acham [$eventrole:name:0$] extremamente irritante, e os três seguem caminhos diferentes, cada um deles zangado.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$], [$eventrole:name:1$] e [$eventrole:name:2$] são assaltados por bandidos; [$eventrole:name:0$] e [$eventrole:name:1$] querem lutar, mas [$eventrole:name:2$] inventa uma história sobre um mercador seguindo-os. Acreditando em [$eventrole:name:2$], os três saem de uma enrascada. [$eventrole:name:0$] e [$eventrole:name:1$] expressam sua admiração por [$eventrole:name:2$].</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] e [$eventrole:name:1$] ouvem um plano para um roubo de joias. [$eventrole:name:0$] quer agir imediatamente, mas [$eventrole:name:1$] prefere agir com cautela. [$eventrole:name:0$] acha que [$eventrole:name:1$] está sendo excessivamente cauteloso.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] e [$eventrole:name:1$] ouvem alguém gritando por ajuda. [$eventrole:name:0$] quer correr imediatamente, mas [$eventrole:name:1$] quer analisar a situação primeiro. [$eventrole:name:0$] acha que [$eventrole:name:1$] é um covarde.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] e [$eventrole:name:1$] se juntam a um grupo de bandidos. [$eventrole:name:0$] entra direto em seu esconderijo sem anúncio, mas [$eventrole:name:1$] acha isso simplesmente muito imprudente.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] e [$eventrole:name:1$] encontram [$eventrole:name:2$] comprando tesouros de [$eventrole:name:3$] na rua e decidem comprar alguns para si mesmos, apenas para descobrir mais tarde que são falsos!</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:1$] e [$eventrole:name:2$] se deparam com [$eventrole:name:0$] tentando persuadir um pobre aldeão a comprar seu lixo. Eles acham que [$eventrole:name:0$] realmente caiu em desgraça.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] foi enganado e perdeu algum dinheiro, mas [$eventrole:name:1$] acabou recuperando tudo para eles. [$eventrole:name:0$] deve uma dívida de gratidão a [$eventrole:name:1$].</t>
+  </si>
+  <si>
+    <t>Exatamente quando [$eventrole:name:0$] está se sentindo completamente exausto depois de um dia na estrada, [$eventrole:name:1$] dá um beliscão no custo da hospedagem de [$eventrole:name:0$] para a noite.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] e [$eventrole:name:1$] se deparam com [$eventrole:name:2$] em seu caminho de volta depois de desistirem de algo no meio do caminho. [$eventrole:name:0$] e [$eventrole:name:1$] não conseguem esconder sua decepção com [$eventrole:name:2$].</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$], [$eventrole:name:1$] e [$eventrole:name:2$] encontram um bando de bandidos enquanto estão na estrada juntos. [$eventrole:name:2$] quer se retirar. [$eventrole:name:0$] e [$eventrole:name:1$] consideram [$eventrole:name:2$] um verdadeiro covarde.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:1$] se depara com [$eventrole:name:0$] discutindo no mercado. [$eventrole:name:0$] está certo, mas se cala diante de gritos excessivamente agressivos. [$eventrole:name:1$] considera isso uma vitória.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] afoga suas saudades de casa em um copo de vinho, mas [$eventrole:name:1$] considera isso o auge da depravação moral.</t>
+  </si>
+  <si>
+    <t>Quando bandidos intimidam os aldeões, [$eventrole:name:1$] fica de lado sem sequer apitar. [$eventrole:name:0$] instantaneamente baixa sua opinião sobre [$eventrole:name:1$].</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] não suporta ver os outros precisando de ajuda e concorda em ajudar um amigo. Fazendo isso, eles acabam arruinando seus próprios planos e se arrependendo de seu lado mais gentil.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] ia visitar alguns amigos, mas desistiu porque a jornada estava sendo muito difícil. Agora eles se sentem um tanto culpados.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] ajuda alguns aldeões a recuperar algum Utar de um vigarista. Eles estão realmente muito gratos.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] começa uma discussão com alguém em uma taverna e acaba dominado pelo arrependimento.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] se depara com algumas pessoas na rua causando alvoroço, mas depois descobre que foi tudo um grande mal-entendido. Agora [$eventrole:name:0$] fica envergonhado.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] recebeu troco em excesso ao comprar grãos de um camponês. Eles voltam ao mercado para devolver o dinheiro extra a ela.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] ouve falar de um assassinato brutal nas mãos de um déspota local e decide estender a mão para acertar as contas de uma vez por todas.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] tranquilamente ajusta uma fratura para um soldado ferido, ganhando o respeito dos moradores locais.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] tenta fazer um "dine and dash" (sair sem pagar) mas é pego - agora eles estão destruindo o lugar inteiro em um acesso de raiva.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] confessa uma antiga fuga da prisão e aguarda sua prisão com um sorriso satisfeito no rosto.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] encanta uma pequena fortuna de um empresário rico antes de empacotar tudo e deixar para trás seu passado.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] queria se juntar a uma gangue para conseguir algum Utar, mas foi convencido do contrário por sua própria moral.</t>
+  </si>
+  <si>
+    <t>A expressão de [$eventrole:name:0$] não se altera ao ver uma recompensa por sua cabeça. Que confiança!</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] é furtado, mas alcança o ladrão. Em vez de aplicar punição, eles entregam o ladrão à guarda da cidade.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] aceita uma missão com uma alta comissão. [$eventrole:name:0$], duvidando de suas habilidades, confessa que não pode cumprir seu dever. Eles não têm escolha senão abandonar sua missão.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] é confundido com um trapaceiro desonesto e, apesar das protestações, acaba pagando do próprio bolso para evitar qualquer problema potencial.</t>
+  </si>
+  <si>
+    <t>Quando [$eventrole:name:0$] encontra um vigarista na taverna que está procurando por eles, eles agem com calma e acabam enganando o trapaceiro de volta.</t>
+  </si>
+  <si>
+    <t>Ao sair para se divertir na cidade, [$eventrole:name:0$] se envolve em uma briga, mas rapidamente admite suas ações quando é detido pela guarda da cidade.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] falha em enganar um comerciante para obter um cristal e destrói sua barraca no processo.</t>
+  </si>
+  <si>
+    <t>Um macaco estranho rouba a mochila de [$eventrole:name:0$], então eles perseguem o macaco até o esconderijo dele.</t>
+  </si>
+  <si>
+    <t>Inicialmente irritado por ser derrubado no mercado local, [$eventrole:name:0$] muda de opinião ao ver que se trata do carismático líder tribal.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] testemunha uma má conduta no bazar, mas negligencia informar os guardas. Sentindo-se culpado depois, eles informam o chefe sobre a identidade do culpado.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] é parado por uma gangue de bandidos que os convida a se juntar a eles e saquear o resto dos mercadores na caravana. Não apenas [$eventrole:name:0$] recusa, como também saca a espada e os enfrenta.</t>
+  </si>
+  <si>
+    <t>Após testemunhar tantas pessoas passando fome nas ruas, [$eventrole:name:0$] distribui grãos preciosos trazidos para a cidade de outro lugar.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] continua roubando um nobre local, acabando por levar seu tesouro mais precioso.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] é capturado por bandidos e jogado na masmorra. Calmamente formulando um plano de fuga, [$eventrole:name:0$] finalmente cava um túnel para a segurança e a liberdade.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] se envolve em uma disputa sobre o preço do peixe, pechinchando até o fim. Quando a compensação finalmente chega, é ainda menor do que o custo de compra.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] se depara com um assalto na rua, mas escolhe não se envolver - e se arrepende depois.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] é detido para interrogatório pela guarda da cidade depois de fugir com uma carruagem. Eles garantem sua liberdade entregando seus cúmplices.</t>
+  </si>
+  <si>
+    <t>Enquanto se gabava sobre cidades natais com estranhos em uma taverna, [$eventrole:name:0$] acidentalmente compartilha muitos detalhes sobre seu endereço. Ao voltar para casa, eles encontram muitos de seus pertences movidos ou desaparecidos.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] é alvo de reclamações dos agricultores locais ao coletar impostos, que admite serem elevados.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] fica furioso, chicoteando um dos cativos de [$eventrole:name:1$] que possui informações importantes. [$eventrole:name:1$] não fica satisfeito.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] organiza um banquete suntuoso, mas irrita [$eventrole:name:1$] e [$eventrole:name:2$] ao negligenciar o convite para eles.</t>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] elabora algumas licenças comerciais para alguns comerciantes a fim de incentivar o comércio na região.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[$eventrole:name:0$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>释放了手下关押的一批年轻俘虏。</t>
+    </r>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] liberta um grupo de jovens cativos mantidos prisioneiros.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[$eventrole:name:0$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在行军路上大肆掠夺无辜的农民们。</t>
+    </r>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] decide saquear alguns moradores locais durante a marcha.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[$eventrole:name:0$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>爱护士兵，特地多发了两日的军饷。</t>
+    </r>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] trata bem seus soldados, dando a todos dois dias de folga remunerada.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[$eventrole:name:0$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>军法处置了几个回家探亲的士兵，在军营引发了一阵恐慌。</t>
+    </r>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] provoca pânico no acampamento ao punir algumas tropas sob acusações de deserção. Elas simplesmente foram para casa visitar a família.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>因对敌人部落的软弱态度，[$eventrole:name:1$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在朝堂上愤怒的与[$eventrole:name:0$]针锋相对。</t>
+    </r>
+  </si>
+  <si>
+    <t>[$eventrole:name:1$] está diametralmente oposto a [$eventrole:name:0$] e sua fraqueza no manejo de tribos inimigas.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[$eventrole:name:0$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>与[$eventrole:name:1$]在私人宴会上抱怨部落首领的不公，被有心人听见了。</t>
+    </r>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] e [$eventrole:name:1$] reclamam do chefe tribal em um banquete privado, mas são ouvidos por alguém com intenções ulteriores.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[$eventrole:name:0$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在司法上偏袒富人，有传言说他经常接受别人的礼物。</t>
+    </r>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] favorece os ricos em questões judiciais. Rumores dizem que eles estão abertos a subornos.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[$eventrole:name:1$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被[$eventrole:name:0$]指控与敌对部落的人私下会面，人们开始质疑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[$eventrole:name:0$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的动机。</t>
+    </r>
+  </si>
+  <si>
+    <t>[$eventrole:name:1$] é acusado por [$eventrole:name:0$] de se encontrar em segredo com o inimigo. As pessoas começam a questionar as intenções de [$eventrole:name:0$].</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[$eventrole:name:0$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>领兵不利，麾下士兵经常擅自离队或者战前退缩，有人开始怀疑其指挥能力。</t>
+    </r>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] tem dificuldade em liderar suas tropas, que frequentemente se ausentam sem permissão ou até desertam de seu esquadrão. As pessoas começam a duvidar de suas habilidades de liderança.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[$eventrole:name:0$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在领地内强行征兵，许多农民不得不让自己的孩子们逃到别出去。</t>
+    </r>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] promulga a conscrição entre a tribo. Muitas famílias instam seus filhos a fugir para escapar das chamas da guerra.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[$eventrole:name:0$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>善待俘虏，美名在敌人之处也得到了传播。</t>
+    </r>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] trata os cativos com gentileza. Sua reputação de benevolência se espalha entre as fileiras inimigas.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[$eventrole:name:0$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>沉迷郊游狩猎，丝毫不关心领地民生。</t>
+    </r>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] adora caçar na selva, aparentemente sem se preocupar com o sustento das pessoas.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[$eventrole:name:0$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>巡视领地时，亲自下地与农民一起干活，受到人们的爱戴。</t>
+    </r>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] ajuda pessoalmente os camponeses em suas tarefas enquanto está em patrulha, ganhando o amor do povo.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[$eventrole:name:0$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>沉着处理了领地内的自然灾害，避免了一场浩劫。</t>
+    </r>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] lida calmamente com um desastre natural para a tribo, evitando uma catástrofe.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[$eventrole:name:0$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为了稳定军心，将自己的计划向所有士兵托盘而出，但是却被间谍偷听，传到了敌对部落那里。</t>
+    </r>
+  </si>
+  <si>
+    <t>Para conquistar a confiança de todas as suas tropas, [$eventrole:name:0$] expõe todos os seus planos. Um espião ouve suas palavras e as transmite rapidamente para uma tribo inimiga.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[$eventrole:name:0$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在敌人的领地行军时不忘赠与食物给当地农民，所以一切都很顺利。</t>
+    </r>
+  </si>
+  <si>
+    <t>[$eventrole:name:0$] lembra de recompensar os agricultores locais com grãos enquanto marcha por território inimigo. A marcha continua com segurança.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1154,12 +1444,38 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1171,16 +1487,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF08080"/>
+        <fgColor rgb="FFFFEA04"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEA04"/>
+        <fgColor rgb="FFF08080" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1188,23 +1505,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1224,7 +1562,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1523,10 +1861,10 @@
   <dimension ref="A1:C139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:C139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -1539,565 +1877,565 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="135">
+    <row r="2" spans="1:3" ht="78.75">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="270">
+      <c r="C2" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="157.5">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="165">
+      <c r="C3" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="101.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="180">
+      <c r="C4" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="101.25">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="180">
+      <c r="C5" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="101.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="150">
+      <c r="C6" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="90">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="135">
+      <c r="C7" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="78.75">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="180">
+      <c r="C8" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="101.25">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="150">
+      <c r="C9" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="90">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="165">
+      <c r="C10" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="101.25">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="210">
+      <c r="C11" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="123.75">
       <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="150">
+      <c r="C12" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="90">
       <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="195">
+      <c r="C13" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="112.5">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C14" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="180">
+      <c r="C14" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="112.5">
       <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C15" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="105">
+      <c r="C15" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="67.5">
       <c r="A16" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C16" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="150">
+      <c r="C16" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="90">
       <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C17" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="165">
+      <c r="C17" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="101.25">
       <c r="A18" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C18" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="210">
+      <c r="C18" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="123.75">
       <c r="A19" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C19" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="150">
+      <c r="C19" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="90">
       <c r="A20" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C20" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="210">
+      <c r="C20" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="123.75">
       <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C21" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="150">
+      <c r="C21" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="90">
       <c r="A22" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C22" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="165">
+      <c r="C22" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="90">
       <c r="A23" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C23" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="225">
+      <c r="C23" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="135">
       <c r="A24" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C24" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="135">
+      <c r="C24" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="78.75">
       <c r="A25" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C25" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="105">
+      <c r="C25" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="67.5">
       <c r="A26" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C26" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="210">
+      <c r="C26" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="123.75">
       <c r="A27" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C27" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="180">
+      <c r="C27" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="112.5">
       <c r="A28" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C28" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="180">
+      <c r="C28" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="112.5">
       <c r="A29" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C29" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="180">
+      <c r="C29" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="112.5">
       <c r="A30" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C30" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="180">
+      <c r="C30" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="112.5">
       <c r="A31" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C31" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="165">
+      <c r="C31" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="101.25">
       <c r="A32" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C32" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="195">
+      <c r="C32" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="112.5">
       <c r="A33" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C33" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="165">
+      <c r="C33" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="101.25">
       <c r="A34" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C34" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="225">
+      <c r="C34" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="135">
       <c r="A35" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C35" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="135">
+      <c r="C35" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="78.75">
       <c r="A36" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C36" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="135">
+      <c r="C36" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="78.75">
       <c r="A37" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C37" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="195">
+      <c r="C37" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="112.5">
       <c r="A38" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C38" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="150">
+      <c r="C38" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="90">
       <c r="A39" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C39" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="195">
+      <c r="C39" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="112.5">
       <c r="A40" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C40" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="225">
+      <c r="C40" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="135">
       <c r="A41" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C41" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="210">
+      <c r="C41" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="135">
       <c r="A42" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C42" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="195">
+      <c r="C42" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="112.5">
       <c r="A43" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C43" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="195">
+      <c r="C43" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="112.5">
       <c r="A44" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C44" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="135">
+      <c r="C44" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="78.75">
       <c r="A45" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C45" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="270">
+      <c r="C45" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="157.5">
       <c r="A46" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C46" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="225">
+      <c r="C46" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="135">
       <c r="A47" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C47" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="240">
+      <c r="C47" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="146.25">
       <c r="A48" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C48" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="300">
+      <c r="C48" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="180">
       <c r="A49" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C49" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="255">
+      <c r="C49" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="157.5">
       <c r="A50" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C50" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="330">
+      <c r="C50" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="191.25">
       <c r="A51" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C51" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="409.5">
+      <c r="C51" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="348.75">
       <c r="A52" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C52" t="s">
-        <v>305</v>
+      <c r="C52" s="5" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="409.5">
@@ -2107,809 +2445,857 @@
       <c r="B53" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C53" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="390">
+      <c r="C53" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="258.75">
       <c r="A54" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C54" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="405">
+      <c r="C54" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="258.75">
       <c r="A55" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C55" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="300">
+      <c r="C55" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="191.25">
       <c r="A56" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C56" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="285">
+      <c r="C56" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="180">
       <c r="A57" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C57" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="300">
+      <c r="C57" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="191.25">
       <c r="A58" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C58" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="255">
+      <c r="C58" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="157.5">
       <c r="A59" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C59" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="210">
+      <c r="C59" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="135">
       <c r="A60" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C60" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="390">
+      <c r="C60" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="247.5">
       <c r="A61" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C61" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="405">
+      <c r="C61" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="258.75">
       <c r="A62" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C62" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="360">
+      <c r="C62" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="213.75">
       <c r="A63" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C63" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="240">
+      <c r="C63" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="146.25">
       <c r="A64" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C64" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="300">
+      <c r="C64" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="180">
       <c r="A65" s="3" t="s">
         <v>129</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C65" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="300">
+      <c r="C65" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="168.75">
       <c r="A66" s="3" t="s">
         <v>131</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C66" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="195">
+      <c r="C66" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="112.5">
       <c r="A67" s="3" t="s">
         <v>133</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C67" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="195">
+      <c r="C67" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="112.5">
       <c r="A68" s="3" t="s">
         <v>135</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C68" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="150">
+      <c r="C68" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="90">
       <c r="A69" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C69" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="270">
+      <c r="C69" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="157.5">
       <c r="A70" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C70" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="165">
+      <c r="C70" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="101.25">
       <c r="A71" s="3" t="s">
         <v>141</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C71" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="195">
+      <c r="C71" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="112.5">
       <c r="A72" s="3" t="s">
         <v>143</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C72" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="165">
+      <c r="C72" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="101.25">
       <c r="A73" s="3" t="s">
         <v>145</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C73" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="180">
+      <c r="C73" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="112.5">
       <c r="A74" s="3" t="s">
         <v>147</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C74" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="210">
+      <c r="C74" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="123.75">
       <c r="A75" s="3" t="s">
         <v>149</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C75" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="195">
+      <c r="C75" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="112.5">
       <c r="A76" s="3" t="s">
         <v>151</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C76" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="165">
+      <c r="C76" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="101.25">
       <c r="A77" s="3" t="s">
         <v>153</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C77" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="180">
+      <c r="C77" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="101.25">
       <c r="A78" s="3" t="s">
         <v>155</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C78" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="240">
+      <c r="C78" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="146.25">
       <c r="A79" s="3" t="s">
         <v>157</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C79" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="240">
+      <c r="C79" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="146.25">
       <c r="A80" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C80" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="225">
+      <c r="C80" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="135">
       <c r="A81" s="3" t="s">
         <v>161</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C81" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="210">
+      <c r="C81" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="123.75">
       <c r="A82" s="3" t="s">
         <v>163</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C82" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="180">
+      <c r="C82" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="112.5">
       <c r="A83" s="3" t="s">
         <v>165</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C83" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="180">
+      <c r="C83" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="101.25">
       <c r="A84" s="3" t="s">
         <v>167</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C84" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="165">
+      <c r="C84" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="90">
       <c r="A85" s="3" t="s">
         <v>169</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C85" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="210">
+      <c r="C85" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="123.75">
       <c r="A86" s="3" t="s">
         <v>171</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C86" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="225">
+      <c r="C86" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="135">
       <c r="A87" s="3" t="s">
         <v>173</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C87" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="285">
+      <c r="C87" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="168.75">
       <c r="A88" s="3" t="s">
         <v>175</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C88" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="195">
+      <c r="C88" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="112.5">
       <c r="A89" s="3" t="s">
         <v>177</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C89" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="210">
+      <c r="C89" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="123.75">
       <c r="A90" s="3" t="s">
         <v>179</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C90" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="270">
+      <c r="C90" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="157.5">
       <c r="A91" s="3" t="s">
         <v>181</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C91" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="285">
+      <c r="C91" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="157.5">
       <c r="A92" s="3" t="s">
         <v>183</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C92" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="180">
+      <c r="C92" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="112.5">
       <c r="A93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C93" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="210">
+      <c r="C93" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="123.75">
       <c r="A94" s="3" t="s">
         <v>187</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C94" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="255">
+      <c r="C94" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="146.25">
       <c r="A95" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C95" t="s">
-        <v>348</v>
+      <c r="C95" s="5" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="3" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" s="3" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" s="3" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" s="3" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" s="3" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" s="3" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" s="3" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" s="3" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" s="3" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" s="3" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" s="3" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" s="3" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" s="3" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112" s="3" t="s">
         <v>207</v>
       </c>
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="3" t="s">
         <v>208</v>
       </c>
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="3" t="s">
         <v>209</v>
       </c>
+      <c r="B114" s="6"/>
+      <c r="C114" s="6"/>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="3" t="s">
         <v>210</v>
       </c>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="3" t="s">
         <v>211</v>
       </c>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="3" t="s">
         <v>212</v>
       </c>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="3" t="s">
         <v>213</v>
       </c>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="3" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" ht="135">
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+    </row>
+    <row r="120" spans="1:3" ht="78.75">
       <c r="A120" s="3" t="s">
         <v>215</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C120" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="255">
+      <c r="C120" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="146.25">
       <c r="A121" s="3" t="s">
         <v>217</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C121" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="225">
+      <c r="C121" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="146.25">
       <c r="A122" s="3" t="s">
         <v>219</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C122" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="165">
+      <c r="C122" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="90">
       <c r="A123" s="3" t="s">
         <v>221</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C123" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="120">
+      <c r="C123" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="73.5">
       <c r="A124" s="3" t="s">
         <v>223</v>
       </c>
       <c r="B124" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="86.25">
+      <c r="A125" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C124" t="s">
+      <c r="B125" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="86.25">
+      <c r="A126" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="111.75">
+      <c r="A127" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="132.75">
+      <c r="A128" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="137.25">
+      <c r="A129" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="111.75">
+      <c r="A130" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="180">
+      <c r="A131" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="137.25">
+      <c r="A132" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B132" s="4" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" ht="120">
-      <c r="A125" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="C132" s="5" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="120">
-      <c r="A126" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C126" t="s">
+    <row r="133" spans="1:3" ht="124.5">
+      <c r="A133" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B133" s="4" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" ht="180">
-      <c r="A127" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="C133" s="5" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="195">
-      <c r="A128" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C128" t="s">
+    <row r="134" spans="1:3" ht="86.25">
+      <c r="A134" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B134" s="4" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" ht="210">
-      <c r="A129" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B129" s="4" t="s">
+      <c r="C134" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="86.25">
+      <c r="A135" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C129" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="165">
-      <c r="A130" s="3" t="s">
+      <c r="B135" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="111.75">
+      <c r="A136" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B136" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="99">
+      <c r="A137" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C130" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="240">
-      <c r="A131" s="3" t="s">
+      <c r="B137" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="162.75">
+      <c r="A138" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B138" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="124.5">
+      <c r="A139" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C131" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="210">
-      <c r="A132" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C132" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="195">
-      <c r="A133" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C133" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="135">
-      <c r="A134" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C134" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="135">
-      <c r="A135" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C135" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="180">
-      <c r="A136" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C136" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="150">
-      <c r="A137" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C137" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="255">
-      <c r="A138" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C138" t="s">
+      <c r="B139" s="4" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" ht="195">
-      <c r="A139" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C139" t="s">
+      <c r="C139" s="5" t="s">
         <v>368</v>
       </c>
     </row>
